--- a/table/Table_S5_60_Genes_interactive_with_intergenic_hypo_DMR.xlsx
+++ b/table/Table_S5_60_Genes_interactive_with_intergenic_hypo_DMR.xlsx
@@ -811,7 +811,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3472,14 +3472,22 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.2">
-      <c r="C67" s="10" t="s">
+      <c r="A67" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67"/>
+      <c r="M67"/>
     </row>
     <row r="68" spans="1:13" ht="16.2">
-      <c r="C68" s="10" t="s">
+      <c r="A68" s="10" t="s">
         <v>92</v>
       </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68"/>
+      <c r="M68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
